--- a/I1_ProcessInfo.xlsx
+++ b/I1_ProcessInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drsun\Documents\MyPython\PyPHAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C84ED8-6F2D-4D7E-A30F-312D48FFABB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA11E162-15DD-45C9-8D5D-2BD5DA504E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{13819909-11E9-4993-88E8-9718048B5B70}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="28800" windowHeight="15540" xr2:uid="{13819909-11E9-4993-88E8-9718048B5B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Isolatable summary" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
     <sheet name="Sheet2" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Isolatable summary'!$B$2:$AX$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Isolatable summary'!$B$2:$AX$5</definedName>
     <definedName name="FH">Sheet1!$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Isolatable summary'!$A$2:$AU$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Isolatable summary'!$A$2:$AU$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Isolatable summary'!$2:$2</definedName>
     <definedName name="R0_">Sheet1!$I$2</definedName>
     <definedName name="RHigh">Sheet1!$K$2</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="289">
   <si>
     <t>Area</t>
   </si>
@@ -180,14 +180,6 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Yes
-3"-BDV-0001</t>
-  </si>
-  <si>
-    <t>Yes
-3"-BDV-0002</t>
-  </si>
-  <si>
     <t>11-2</t>
   </si>
   <si>
@@ -255,10 +247,6 @@
   </si>
   <si>
     <t>Note for BDV</t>
-  </si>
-  <si>
-    <t>There are two types of blowdown lines provided for each flowline; 1) emergency blowdown line and 2) riser depressurisation line.
-1) &amp; 2) are interlocked to prevent simultaneous  openiong.</t>
   </si>
   <si>
     <t>Level</t>
@@ -952,12 +940,6 @@
   </si>
   <si>
     <t>A01</t>
-  </si>
-  <si>
-    <t>A-PRS</t>
-  </si>
-  <si>
-    <t>A-PRS to FG compressor</t>
   </si>
   <si>
     <t>FG compressor</t>
@@ -1006,7 +988,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,11 +1021,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF414042"/>
-      <name val="Frutiger LT 45 Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Frutiger LT 45 Light"/>
       <family val="2"/>
     </font>
@@ -1200,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1223,37 +1200,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1278,68 +1237,38 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,28 +1277,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1384,13 +1313,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,16 +1328,16 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1759,617 +1688,437 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="34" customWidth="1"/>
-    <col min="12" max="15" width="6.7109375" style="34" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" style="18" customWidth="1"/>
-    <col min="20" max="20" width="21" style="18" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="5" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="26" customWidth="1"/>
+    <col min="12" max="15" width="6.7265625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="9.26953125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="29.81640625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="21" style="13" customWidth="1"/>
+    <col min="21" max="21" width="9.453125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="15.26953125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="24.26953125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.7265625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="65.26953125" style="13" customWidth="1"/>
     <col min="27" max="28" width="10" style="5" customWidth="1"/>
     <col min="29" max="29" width="14" style="5" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" style="5" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" style="5" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="9" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="10.26953125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="8.54296875" style="5" customWidth="1"/>
+    <col min="32" max="32" width="9.81640625" style="5" customWidth="1"/>
+    <col min="33" max="34" width="9.1796875" style="9" customWidth="1"/>
+    <col min="35" max="35" width="13.453125" style="5" customWidth="1"/>
     <col min="36" max="36" width="11" style="7" customWidth="1"/>
-    <col min="37" max="37" width="8.7109375" style="7" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" style="5" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" style="5" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" style="5" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" style="5" customWidth="1"/>
+    <col min="37" max="37" width="8.7265625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="8.1796875" style="5" customWidth="1"/>
+    <col min="39" max="39" width="9.453125" style="5" customWidth="1"/>
+    <col min="40" max="40" width="11.54296875" style="5" customWidth="1"/>
+    <col min="41" max="41" width="22.7265625" style="5" customWidth="1"/>
     <col min="42" max="43" width="16" style="5" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="8" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" style="5" customWidth="1"/>
-    <col min="46" max="46" width="79.140625" style="5" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="5" customWidth="1"/>
-    <col min="48" max="49" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="5"/>
+    <col min="44" max="44" width="11.7265625" style="8" customWidth="1"/>
+    <col min="45" max="45" width="16.453125" style="5" customWidth="1"/>
+    <col min="46" max="46" width="79.1796875" style="5" customWidth="1"/>
+    <col min="47" max="47" width="10.26953125" style="5" customWidth="1"/>
+    <col min="48" max="49" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="AY1" s="5">
         <v>1.05</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="61" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>59</v>
+    <row r="2" spans="1:51" s="45" customFormat="1" ht="64" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" s="48"/>
+      <c r="P2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>243</v>
-      </c>
-      <c r="M2" s="64" t="s">
+      <c r="AL2" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM2" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="N2" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="63" t="s">
+      <c r="AN2" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR2" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT2" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV2" s="47"/>
+    </row>
+    <row r="3" spans="1:51" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44">
         <v>1</v>
       </c>
-      <c r="Q2" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="S2" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="V2" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z2" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB2" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE2" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF2" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG2" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH2" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI2" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM2" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="AN2" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO2" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP2" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR2" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS2" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT2" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU2" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="AV2" s="63"/>
-    </row>
-    <row r="3" spans="1:51" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="57">
+        <v>6.36</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="57">
+        <v>1.33</v>
+      </c>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM3" s="57">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="57">
+        <v>5.55</v>
+      </c>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+    </row>
+    <row r="4" spans="1:51" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>8</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="57">
+        <v>6.05</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="57">
+        <v>0.73</v>
+      </c>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM4" s="57">
+        <v>43</v>
+      </c>
+      <c r="AN4" s="57">
+        <v>110.78</v>
+      </c>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+    </row>
+    <row r="5" spans="1:51" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="G5" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44">
+        <v>1</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19">
-        <v>1</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="73">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="73">
-        <v>1.33</v>
-      </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="73">
-        <v>1.05</v>
-      </c>
-      <c r="AM3" s="73">
-        <v>-133.9</v>
-      </c>
-      <c r="AN3" s="73">
-        <v>1.65</v>
-      </c>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ3" s="16">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="15">
-        <f>SQRT(AS3/3.14)*2</f>
-        <v>13.162386092320499</v>
-      </c>
-      <c r="AS3" s="13">
-        <v>136</v>
-      </c>
-      <c r="AT3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU3" s="13">
-        <f>AA3+30+AQ3</f>
-        <v>33</v>
-      </c>
-      <c r="AV3" s="13"/>
-    </row>
-    <row r="4" spans="1:51" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19">
-        <v>1</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="73">
-        <v>6</v>
-      </c>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="73">
-        <v>1.33</v>
-      </c>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="73">
-        <v>1.02</v>
-      </c>
-      <c r="AM4" s="73">
-        <v>24.5</v>
-      </c>
-      <c r="AN4" s="73">
-        <v>1.65</v>
-      </c>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ4" s="16">
-        <v>3</v>
-      </c>
-      <c r="AR4" s="15">
-        <f t="shared" ref="AR4" si="0">SQRT(AS4/3.14)*2</f>
-        <v>13.162386092320499</v>
-      </c>
-      <c r="AS4" s="13">
-        <v>136</v>
-      </c>
-      <c r="AT4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU4" s="16">
-        <f>AA4+30+AQ4</f>
-        <v>33</v>
-      </c>
-      <c r="AV4" s="13"/>
-    </row>
-    <row r="5" spans="1:51" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60">
-        <v>1</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="73">
-        <v>6.36</v>
-      </c>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="73">
-        <v>1.33</v>
-      </c>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM5" s="73">
-        <v>43</v>
-      </c>
-      <c r="AN5" s="73">
-        <v>5.55</v>
-      </c>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-    </row>
-    <row r="6" spans="1:51" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>8</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60">
-        <v>1</v>
-      </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="73">
-        <v>6.05</v>
-      </c>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="73">
-        <v>0.73</v>
-      </c>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM6" s="73">
-        <v>43</v>
-      </c>
-      <c r="AN6" s="73">
-        <v>110.78</v>
-      </c>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56"/>
-    </row>
-    <row r="7" spans="1:51" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>9</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="71" t="s">
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="57">
+        <v>0.46</v>
+      </c>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="57">
+        <v>4.01</v>
+      </c>
+      <c r="AM5" s="57">
+        <v>-147.6</v>
+      </c>
+      <c r="AN5" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60">
-        <v>1</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="73">
-        <v>0.46</v>
-      </c>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="73">
-        <v>4.01</v>
-      </c>
-      <c r="AM7" s="73">
-        <v>-147.6</v>
-      </c>
-      <c r="AN7" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-    </row>
-    <row r="8" spans="1:51" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+    </row>
+    <row r="6" spans="1:51" ht="16" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2389,37 +2138,37 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="67.42578125" customWidth="1"/>
+    <col min="7" max="7" width="67.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
         <v>227</v>
       </c>
-      <c r="E2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -2431,13 +2180,13 @@
         <f>3.14*(25.4*16)^2*E3/10^9</f>
         <v>11.409319116800001</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -2453,15 +2202,15 @@
         <v>51.860541439999999</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -2474,7 +2223,7 @@
         <v>2.5930270719999999</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>8</v>
       </c>
@@ -2486,12 +2235,12 @@
         <v>0.162064192</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -2504,15 +2253,15 @@
         <v>5.1860541439999999</v>
       </c>
       <c r="G7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2530,78 +2279,78 @@
       <selection activeCell="O19" sqref="N19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <f>3.14*150^2*1600/10^9</f>
         <v>0.11304</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <f>3.14*300^2*1800/10^9</f>
         <v>0.50868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -2622,7 +2371,7 @@
         <v>32412.838400000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2643,7 +2392,7 @@
         <v>18232.221599999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2663,7 +2412,7 @@
         <v>8103.2096000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D11">
         <f>SUM(D8:D10)</f>
         <v>0.49632158799999998</v>
@@ -2683,7 +2432,7 @@
       <selection activeCell="M27" sqref="M27:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2698,59 +2447,59 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" style="5" customWidth="1"/>
+    <col min="2" max="4" width="6.7265625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>276</v>
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>273</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>277</v>
+      <c r="H2" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="49">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="33">
         <v>176.1</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="33">
         <v>-10.4</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="33">
         <v>44.8</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3:I3">1000*B3:D3</f>
@@ -2783,21 +2532,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="49">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="33">
         <v>189.9</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="33">
         <v>-7</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="33">
         <v>44.9</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G4">
         <f t="array" ref="G4:I4">1000*B4:D4</f>
@@ -2830,21 +2579,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="49">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="33">
         <v>186.6</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="33">
         <v>-10.8</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="33">
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G5">
         <f t="array" ref="G5:I5">1000*B5:D5</f>
@@ -2877,21 +2626,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="49">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="33">
         <v>176.1</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="33">
         <v>-10.3</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="33">
         <v>44.8</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G6">
         <f t="array" ref="G6:I6">1000*B6:D6</f>
@@ -2924,21 +2673,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="50">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="34">
         <v>176.9</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="34">
         <v>20.6</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="34">
         <v>31.5</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G7">
         <f t="array" ref="G7:I7">1000*B7:D7</f>
@@ -2971,21 +2720,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="50">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="34">
         <v>165.5</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="34">
         <v>9.5</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="34">
         <v>30.5</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G8">
         <f t="array" ref="G8:I8">1000*B8:D8</f>
@@ -3018,21 +2767,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="49">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="33">
         <v>185</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="33">
         <v>-9</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="33">
         <v>40.5</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G9">
         <f t="array" ref="G9:I9">1000*B9:D9</f>
@@ -3065,21 +2814,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="49">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="33">
         <v>172.8</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="33">
         <v>-8.9</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="33">
         <v>36.1</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G10">
         <f t="array" ref="G10:I10">1000*B10:D10</f>
@@ -3112,21 +2861,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="50">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="34">
         <v>181</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="34">
         <v>-18</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="34">
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G11">
         <f t="array" ref="G11:I11">1000*B11:D11</f>
@@ -3159,21 +2908,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="50">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="34">
         <v>173</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="34">
         <v>-18</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="34">
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G12">
         <f t="array" ref="G12:I12">1000*B12:D12</f>
@@ -3206,21 +2955,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="49">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="33">
         <v>174</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="33">
         <v>-19</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="33">
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G13">
         <f t="array" ref="G13:I13">1000*B13:D13</f>
@@ -3253,21 +3002,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="49">
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="33">
         <v>157.9</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="33">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="33">
         <v>44.8</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G14">
         <f t="array" ref="G14:I14">1000*B14:D14</f>
@@ -3300,21 +3049,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="49">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="33">
         <v>151.9</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="33">
         <v>-14.4</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="33">
         <v>49.3</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G15">
         <f t="array" ref="G15:I15">1000*B15:D15</f>
@@ -3347,21 +3096,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="49">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="33">
         <v>161</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="33">
         <v>-18.600000000000001</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="33">
         <v>39.799999999999997</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G16">
         <f t="array" ref="G16:I16">1000*B16:D16</f>
@@ -3394,21 +3143,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="49">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="33">
         <v>159.5</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="33">
         <v>-7.5</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="33">
         <v>36.5</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G17">
         <f t="array" ref="G17:I17">1000*B17:D17</f>
@@ -3441,21 +3190,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="49">
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="33">
         <v>157.69999999999999</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="33">
         <v>-8.4</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="33">
         <v>48.9</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G18">
         <f t="array" ref="G18:I18">1000*B18:D18</f>
@@ -3488,21 +3237,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="50">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A19" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="34">
         <v>188.2</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="34">
         <v>-19.600000000000001</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="34">
         <v>40.9</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G19">
         <f t="array" ref="G19:I19">1000*B19:D19</f>
@@ -3535,21 +3284,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="50">
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A20" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="34">
         <v>187.2</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="34">
         <v>-12.6</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="34">
         <v>36.299999999999997</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G20">
         <f t="array" ref="G20:I20">1000*B20:D20</f>
@@ -3582,21 +3331,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="49">
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="33">
         <v>111.5</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="33">
         <v>-19.600000000000001</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="33">
         <v>36.6</v>
       </c>
       <c r="F21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G21">
         <f t="array" ref="G21:I21">1000*B21:D21</f>
@@ -3629,21 +3378,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="49">
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="33">
         <v>46.8</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="33">
         <v>-20</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="33">
         <v>32.799999999999997</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G22">
         <f t="array" ref="G22:I22">1000*B22:D22</f>
@@ -3676,21 +3425,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="49">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="33">
         <v>-5.6</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="33">
         <v>-5.8</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="33">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G23">
         <f t="array" ref="G23:I23">1000*B23:D23</f>
@@ -3723,21 +3472,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" s="50">
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="34">
         <v>131.5</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="34">
         <v>18.8</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="34">
         <v>47.2</v>
       </c>
       <c r="F24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G24">
         <f t="array" ref="G24:I24">1000*B24:D24</f>
@@ -3770,21 +3519,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" s="50">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="34">
         <v>130.9</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="34">
         <v>16.899999999999999</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="34">
         <v>38.5</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G25">
         <f t="array" ref="G25:I25">1000*B25:D25</f>
@@ -3817,21 +3566,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="50">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A26" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="34">
         <v>126.1</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="34">
         <v>12.4</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="34">
         <v>35.799999999999997</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G26">
         <f t="array" ref="G26:I26">1000*B26:D26</f>
@@ -3864,21 +3613,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B27" s="49">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A27" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="33">
         <v>133.30000000000001</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="33">
         <v>15.3</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="33">
         <v>47.3</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G27">
         <f t="array" ref="G27:I27">1000*B27:D27</f>
@@ -3911,21 +3660,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="B28" s="49">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A28" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="33">
         <v>131.4</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="33">
         <v>12.2</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="33">
         <v>38.6</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G28">
         <f t="array" ref="G28:I28">1000*B28:D28</f>
@@ -3958,21 +3707,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="49">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A29" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="33">
         <v>128</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="33">
         <v>6.2</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="33">
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G29">
         <f t="array" ref="G29:I29">1000*B29:D29</f>
@@ -4005,21 +3754,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="49">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A30" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="33">
         <v>123.2</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="33">
         <v>-12</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="33">
         <v>55.6</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G30">
         <f t="array" ref="G30:I30">1000*B30:D30</f>
@@ -4052,21 +3801,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="49">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="33">
         <v>124.5</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="33">
         <v>-9</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="33">
         <v>47.6</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G31">
         <f t="array" ref="G31:I31">1000*B31:D31</f>
@@ -4099,21 +3848,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="49">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A32" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="33">
         <v>125.9</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="33">
         <v>-15.1</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="33">
         <v>38.700000000000003</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G32">
         <f t="array" ref="G32:I32">1000*B32:D32</f>
@@ -4146,21 +3895,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="49">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="33">
         <v>124.1</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="33">
         <v>-21.6</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="33">
         <v>41.4</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G33">
         <f t="array" ref="G33:I33">1000*B33:D33</f>
@@ -4193,21 +3942,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="49">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="33">
         <v>128.30000000000001</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="33">
         <v>-21.5</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="33">
         <v>41.1</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G34">
         <f t="array" ref="G34:I34">1000*B34:D34</f>
@@ -4240,21 +3989,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="49">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A35" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="33">
         <v>128.80000000000001</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="33">
         <v>-6.4</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="33">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G35">
         <f t="array" ref="G35:I35">1000*B35:D35</f>
@@ -4287,21 +4036,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="49">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A36" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="33">
         <v>136.6</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="33">
         <v>-16</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="33">
         <v>51.2</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G36">
         <f t="array" ref="G36:I36">1000*B36:D36</f>
@@ -4334,21 +4083,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="49">
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A37" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="33">
         <v>144.6</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="33">
         <v>7.5</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="33">
         <v>38.4</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G37">
         <f t="array" ref="G37:I37">1000*B37:D37</f>
@@ -4381,21 +4130,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="49">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="33">
         <v>146.69999999999999</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="33">
         <v>10.3</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="33">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G38">
         <f t="array" ref="G38:I38">1000*B38:D38</f>
@@ -4428,21 +4177,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="49">
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="33">
         <v>147.30000000000001</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="33">
         <v>10.3</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="33">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G39">
         <f t="array" ref="G39:I39">1000*B39:D39</f>
@@ -4475,21 +4224,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B40" s="49">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="33">
         <v>145</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="33">
         <v>16.2</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="33">
         <v>55.4</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G40">
         <f t="array" ref="G40:I40">1000*B40:D40</f>
@@ -4522,21 +4271,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="49">
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A41" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="33">
         <v>145.19999999999999</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="33">
         <v>20.6</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="33">
         <v>50.8</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G41">
         <f t="array" ref="G41:I41">1000*B41:D41</f>
@@ -4569,21 +4318,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="50">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A42" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="34">
         <v>146.1</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="33">
         <v>22.2</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="33">
         <v>38.4</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G42">
         <f t="array" ref="G42:I42">1000*B42:D42</f>
@@ -4616,21 +4365,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="50">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A43" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="34">
         <v>150</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="33">
         <v>20.8</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="33">
         <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G43">
         <f t="array" ref="G43:I43">1000*B43:D43</f>
@@ -4663,21 +4412,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="50">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A44" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="34">
         <v>151.5</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="33">
         <v>21.9</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="33">
         <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G44">
         <f t="array" ref="G44:I44">1000*B44:D44</f>
@@ -4710,21 +4459,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="50">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A45" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="34">
         <v>145</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="33">
         <v>16</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="33">
         <v>44.6</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G45">
         <f t="array" ref="G45:I45">1000*B45:D45</f>
@@ -4757,21 +4506,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="50">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A46" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="34">
         <v>147</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="33">
         <v>15.5</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="33">
         <v>35.700000000000003</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G46">
         <f t="array" ref="G46:I46">1000*B46:D46</f>
@@ -4804,21 +4553,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="50">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A47" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="34">
         <v>180.1</v>
       </c>
-      <c r="C47" s="49">
+      <c r="C47" s="33">
         <v>13.2</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D47" s="33">
         <v>47.8</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G47">
         <f t="array" ref="G47:I47">1000*B47:D47</f>
@@ -4851,21 +4600,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="50">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="34">
         <v>178.5</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="33">
         <v>13.1</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="33">
         <v>48.2</v>
       </c>
       <c r="F48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G48">
         <f t="array" ref="G48:I48">1000*B48:D48</f>
@@ -4898,21 +4647,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="50">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A49" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="34">
         <v>173.5</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="33">
         <v>11.6</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="33">
         <v>38.799999999999997</v>
       </c>
       <c r="F49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G49">
         <f t="array" ref="G49:I49">1000*B49:D49</f>
@@ -4945,21 +4694,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="49">
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A50" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="33">
         <v>174.8</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="33">
         <v>10.1</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="33">
         <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G50">
         <f t="array" ref="G50:I50">1000*B50:D50</f>
@@ -4992,21 +4741,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="49">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A51" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="33">
         <v>188.9</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51" s="33">
         <v>24.5</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="33">
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G51">
         <f t="array" ref="G51:I51">1000*B51:D51</f>
@@ -5039,21 +4788,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="49">
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A52" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="33">
         <v>210.7</v>
       </c>
-      <c r="C52" s="49">
+      <c r="C52" s="33">
         <v>13.2</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="33">
         <v>39.5</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G52">
         <f t="array" ref="G52:I52">1000*B52:D52</f>
@@ -5086,21 +4835,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="49">
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A53" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="33">
         <v>205.1</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="33">
         <v>10.5</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="33">
         <v>36.1</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G53">
         <f t="array" ref="G53:I53">1000*B53:D53</f>
@@ -5133,21 +4882,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="49">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A54" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="33">
         <v>207.6</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="33">
         <v>21.2</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="33">
         <v>36.5</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G54">
         <f t="array" ref="G54:I54">1000*B54:D54</f>
@@ -5180,21 +4929,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="49">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A55" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="33">
         <v>206.1</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="33">
         <v>23.2</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="33">
         <v>34.299999999999997</v>
       </c>
       <c r="F55" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G55">
         <f t="array" ref="G55:I55">1000*B55:D55</f>
@@ -5227,21 +4976,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="50">
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A56" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="34">
         <v>127.4</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="34">
         <v>22.2</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="34">
         <v>45.1</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G56">
         <f t="array" ref="G56:I56">1000*B56:D56</f>
@@ -5274,21 +5023,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="49">
+    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="33">
         <v>133.69999999999999</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="33">
         <v>11.1</v>
       </c>
-      <c r="D57" s="49">
+      <c r="D57" s="33">
         <v>45.4</v>
       </c>
       <c r="F57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G57">
         <f t="array" ref="G57:I57">1000*B57:D57</f>
@@ -5321,21 +5070,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="49">
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="33">
         <v>125.5</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="33">
         <v>8.5</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="33">
         <v>44.8</v>
       </c>
       <c r="F58" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G58">
         <f t="array" ref="G58:I58">1000*B58:D58</f>
@@ -5368,21 +5117,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="47">
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="31">
         <v>122</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="31">
         <v>7.2</v>
       </c>
-      <c r="D59" s="47">
+      <c r="D59" s="31">
         <v>39.700000000000003</v>
       </c>
       <c r="F59" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G59">
         <f t="array" ref="G59:I59">1000*B59:D59</f>
@@ -5415,21 +5164,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="49">
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="33">
         <v>129.1</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="33">
         <v>7.1</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="33">
         <v>44.6</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G60">
         <f t="array" ref="G60:I60">1000*B60:D60</f>
@@ -5462,21 +5211,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="49">
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="33">
         <v>77.900000000000006</v>
       </c>
-      <c r="C61" s="49">
+      <c r="C61" s="33">
         <v>-22.2</v>
       </c>
-      <c r="D61" s="49">
+      <c r="D61" s="33">
         <v>35.5</v>
       </c>
       <c r="F61" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G61">
         <f t="array" ref="G61:I61">1000*B61:D61</f>
@@ -5509,21 +5258,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" s="49">
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="33">
         <v>114.4</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="33">
         <v>19.8</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="33">
         <v>47.4</v>
       </c>
       <c r="F62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G62">
         <f t="array" ref="G62:I62">1000*B62:D62</f>
@@ -5556,21 +5305,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="49">
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="33">
         <v>117.5</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="33">
         <v>17.3</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="33">
         <v>45.7</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G63">
         <f t="array" ref="G63:I63">1000*B63:D63</f>
@@ -5603,21 +5352,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="49">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="33">
         <v>102.8</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="33">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D64" s="49">
+      <c r="D64" s="33">
         <v>35.5</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G64">
         <f t="array" ref="G64:I64">1000*B64:D64</f>
@@ -5650,21 +5399,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="50">
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="34">
         <v>103.1</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="34">
         <v>14.6</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="34">
         <v>35.700000000000003</v>
       </c>
       <c r="F65" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G65">
         <f t="array" ref="G65:I65">1000*B65:D65</f>
@@ -5697,21 +5446,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="47">
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="31">
         <v>115.3</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="31">
         <v>3.5</v>
       </c>
-      <c r="D66" s="47">
+      <c r="D66" s="31">
         <v>43.5</v>
       </c>
       <c r="F66" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G66">
         <f t="array" ref="G66:I66">1000*B66:D66</f>
@@ -5744,21 +5493,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="47">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="31">
         <v>115</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="31">
         <v>4.8</v>
       </c>
-      <c r="D67" s="47">
+      <c r="D67" s="31">
         <v>42.8</v>
       </c>
       <c r="F67" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G67">
         <f t="array" ref="G67:I67">1000*B67:D67</f>
@@ -5791,21 +5540,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="49">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="33">
         <v>213.1</v>
       </c>
-      <c r="C68" s="49">
+      <c r="C68" s="33">
         <v>-21.4</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="33">
         <v>29.9</v>
       </c>
       <c r="F68" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G68">
         <f t="array" ref="G68:I68">1000*B68:D68</f>
@@ -5838,21 +5587,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="49">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="33">
         <v>158.69999999999999</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="33">
         <v>32.9</v>
       </c>
       <c r="F69" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G69">
         <f t="array" ref="G69:I69">1000*B69:D69</f>
@@ -5885,21 +5634,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="49">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="33">
         <v>152.30000000000001</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="33">
         <v>3.8</v>
       </c>
-      <c r="D70" s="49">
+      <c r="D70" s="33">
         <v>32.200000000000003</v>
       </c>
       <c r="F70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G70">
         <f t="array" ref="G70:I70">1000*B70:D70</f>
@@ -5932,21 +5681,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="49">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A71" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="33">
         <v>103</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="33">
         <v>-23</v>
       </c>
-      <c r="D71" s="49">
+      <c r="D71" s="33">
         <v>37.799999999999997</v>
       </c>
       <c r="F71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G71">
         <f t="array" ref="G71:I71">1000*B71:D71</f>
@@ -5979,21 +5728,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" s="49">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A72" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="33">
         <v>77.2</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="33">
         <v>-23.3</v>
       </c>
-      <c r="D72" s="49">
+      <c r="D72" s="33">
         <v>35.5</v>
       </c>
       <c r="F72" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G72">
         <f t="array" ref="G72:I72">1000*B72:D72</f>
@@ -6026,21 +5775,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="49">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="33">
         <v>158.30000000000001</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C73" s="33">
         <v>8.5</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="33">
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G73">
         <f t="array" ref="G73:I73">1000*B73:D73</f>
@@ -6073,21 +5822,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="33">
         <v>58.1</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="33">
         <v>8.4</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="33">
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G74">
         <f t="array" ref="G74:I74">1000*B74:D74</f>
@@ -6120,21 +5869,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="33">
         <v>158.30000000000001</v>
       </c>
-      <c r="C75" s="49">
+      <c r="C75" s="33">
         <v>-8.5</v>
       </c>
-      <c r="D75" s="49">
+      <c r="D75" s="33">
         <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G75">
         <f t="array" ref="G75:I75">1000*B75:D75</f>
@@ -6167,21 +5916,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="33">
         <v>58.1</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C76" s="33">
         <v>-8.4</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="33">
         <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G76">
         <f t="array" ref="G76:I76">1000*B76:D76</f>
@@ -6214,21 +5963,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="49">
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A77" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="33">
         <v>158.30000000000001</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C77" s="33">
         <v>10.8</v>
       </c>
-      <c r="D77" s="49">
+      <c r="D77" s="33">
         <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G77">
         <f t="array" ref="G77:I77">1000*B77:D77</f>
@@ -6261,21 +6010,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A78" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="48">
+      <c r="B78" s="32">
         <v>58.2</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="32">
         <v>10.5</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D78" s="33">
         <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G78">
         <f t="array" ref="G78:I78">1000*B78:D78</f>
@@ -6308,21 +6057,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A79" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="49">
+      <c r="B79" s="33">
         <v>158.30000000000001</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="33">
         <v>-10.8</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D79" s="33">
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G79">
         <f t="array" ref="G79:I79">1000*B79:D79</f>
@@ -6355,21 +6104,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A80" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="48">
+      <c r="B80" s="32">
         <v>58.2</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="32">
         <v>-10.5</v>
       </c>
-      <c r="D80" s="49">
+      <c r="D80" s="33">
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G80">
         <f t="array" ref="G80:I80">1000*B80:D80</f>
@@ -6416,14 +6165,14 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6441,59 +6190,59 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:23" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="30">
         <v>3</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="30">
         <v>4</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="30">
         <v>151</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="M2" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="N2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3">
         <v>3.1300000000000001E-2</v>
@@ -6541,9 +6290,9 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4">
         <v>0.80679999999999996</v>
@@ -6591,9 +6340,9 @@
         <v>0.84609999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>5.5199999999999999E-2</v>
@@ -6641,9 +6390,9 @@
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6">
         <v>2.6800000000000001E-2</v>
@@ -6691,9 +6440,9 @@
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <f>0.0045+0.0084</f>
@@ -6756,9 +6505,9 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <f>0.0025+0.0033</f>
@@ -6821,9 +6570,9 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>3.5999999999999999E-3</v>
@@ -6871,9 +6620,9 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>4.7999999999999996E-3</v>
@@ -6921,9 +6670,9 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>5.7000000000000002E-3</v>
@@ -6971,9 +6720,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B12">
         <f>0.0025+0.0426</f>
@@ -7033,9 +6782,9 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13">
         <v>2E-3</v>
@@ -7083,9 +6832,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B14">
         <f>SUM(B3:B13)</f>
@@ -7172,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7276,26 +7025,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7313,36 +7062,36 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7350,78 +7099,78 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -7439,163 +7188,163 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29" style="27" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29" style="21" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="27">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="21">
         <f>C7+C6</f>
         <v>140.81</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="21">
         <f>D7+8.8</f>
         <v>13.670000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="15">
+        <v>7.72</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E6" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="15">
+        <v>133.09</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4.87</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="15">
+        <v>80</v>
+      </c>
+      <c r="D8" s="15">
+        <v>16.73</v>
+      </c>
+      <c r="E8" s="15">
+        <v>78.12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" s="21">
-        <v>7.72</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="21">
-        <v>133.09</v>
-      </c>
-      <c r="D7" s="21">
-        <v>4.87</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="21">
-        <v>80</v>
-      </c>
-      <c r="D8" s="21">
-        <v>16.73</v>
-      </c>
-      <c r="E8" s="21">
-        <v>78.12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <f>458519.054035113*1.1</f>
         <v>504370.95943862438</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="24">
+        <v>150</v>
+      </c>
+      <c r="C11" s="18">
         <f>149641.235541599*1.1</f>
         <v>164605.3590957589</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="18">
         <f>39853.9698181926*1.1</f>
         <v>43839.366800011863</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <f>115270.802043591*1.1</f>
         <v>126797.88224795011</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="24">
+        <v>151</v>
+      </c>
+      <c r="C12" s="18">
         <f>49.4013518286664*1.1</f>
         <v>54.341487011533047</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="18">
         <f>15.3033353911919*1.1</f>
         <v>16.833668930311092</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <f>133577.083921296*1.1</f>
         <v>146934.7923134256</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -7603,445 +7352,445 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="22">
+        <v>19.4596964876778</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="18">
+        <v>748.39779620040599</v>
+      </c>
+      <c r="D15" s="18">
+        <v>797.30492059454605</v>
+      </c>
+      <c r="E15" s="18">
+        <v>756.198349560064</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="18">
+        <v>964.72585637050599</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1013.78278213926</v>
+      </c>
+      <c r="E16" s="18">
+        <v>966.98319375290805</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="28">
-        <v>19.4596964876778</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="24">
-        <v>748.39779620040599</v>
-      </c>
-      <c r="D15" s="24">
-        <v>797.30492059454605</v>
-      </c>
-      <c r="E15" s="24">
-        <v>756.198349560064</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="24">
-        <v>964.72585637050599</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1013.78278213926</v>
-      </c>
-      <c r="E16" s="24">
-        <v>966.98319375290805</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="19">
+        <v>9.4159873667284502E-8</v>
+      </c>
+      <c r="D18" s="19">
+        <v>9.4282788476099296E-8</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2.3843543469700599E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1.7972896974111099E-4</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1.79974630135466E-4</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2.4049096287550899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="19">
+        <v>5.7966321378973202E-4</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5.8043487101000805E-4</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.61885533194232201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="25">
-        <v>9.4159873667284502E-8</v>
-      </c>
-      <c r="D18" s="25">
-        <v>9.4282788476099296E-8</v>
-      </c>
-      <c r="E18" s="25">
-        <v>2.3843543469700599E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="19">
+        <v>2.5609375213051298E-3</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2.5633383670830298E-3</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4.21986276733936E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="25">
-        <v>1.7972896974111099E-4</v>
-      </c>
-      <c r="D19" s="25">
-        <v>1.79974630135466E-4</v>
-      </c>
-      <c r="E19" s="25">
-        <v>2.4049096287550899E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="C22" s="19">
+        <v>1.8028565175178701E-2</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1.8056708934901099E-2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2.0409061339974902E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="25">
-        <v>5.7966321378973202E-4</v>
-      </c>
-      <c r="D20" s="25">
-        <v>5.8043487101000805E-4</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0.61885533194232201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="C23" s="19">
+        <v>1.39195081679192E-2</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1.3980536596354801E-2</v>
+      </c>
+      <c r="E23" s="19">
+        <v>3.41412579334978E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="25">
-        <v>2.5609375213051298E-3</v>
-      </c>
-      <c r="D21" s="25">
-        <v>2.5633383670830298E-3</v>
-      </c>
-      <c r="E21" s="25">
-        <v>4.21986276733936E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="C24" s="19">
+        <v>4.2715777790402198E-2</v>
+      </c>
+      <c r="D24" s="19">
+        <v>4.2919789028632797E-2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>6.3514928131281996E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="25">
-        <v>1.8028565175178701E-2</v>
-      </c>
-      <c r="D22" s="25">
-        <v>1.8056708934901099E-2</v>
-      </c>
-      <c r="E22" s="25">
-        <v>2.0409061339974902E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="C25" s="19">
+        <v>2.8660580629728601E-2</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2.87677039227647E-2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1.90759557339872E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="25">
-        <v>1.39195081679192E-2</v>
-      </c>
-      <c r="D23" s="25">
-        <v>1.3980536596354801E-2</v>
-      </c>
-      <c r="E23" s="25">
-        <v>3.41412579334978E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="C26" s="19">
+        <v>4.4942354754034103E-2</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4.5084222680223503E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2.48434787765649E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="25">
-        <v>4.2715777790402198E-2</v>
-      </c>
-      <c r="D24" s="25">
-        <v>4.2919789028632797E-2</v>
-      </c>
-      <c r="E24" s="25">
-        <v>6.3514928131281996E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="C27" s="19">
+        <v>6.7923443547386997E-2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>6.8131668912018897E-2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2.6595040768779702E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="25">
-        <v>2.8660580629728601E-2</v>
-      </c>
-      <c r="D25" s="25">
-        <v>2.87677039227647E-2</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1.90759557339872E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="C28" s="19">
+        <v>2.49847580036675E-2</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2.5063172278267001E-2</v>
+      </c>
+      <c r="E28" s="19">
+        <v>8.9994177617781605E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="25">
-        <v>4.4942354754034103E-2</v>
-      </c>
-      <c r="D26" s="25">
-        <v>4.5084222680223503E-2</v>
-      </c>
-      <c r="E26" s="25">
-        <v>2.48434787765649E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="C29" s="19">
+        <v>0.10820118712217</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.108516578825798</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3.5141193240362102E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="25">
-        <v>6.7923443547386997E-2</v>
-      </c>
-      <c r="D27" s="25">
-        <v>6.8131668912018897E-2</v>
-      </c>
-      <c r="E27" s="25">
-        <v>2.6595040768779702E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C30" s="19">
+        <v>3.8970809212668503E-2</v>
+      </c>
+      <c r="D30" s="19">
+        <v>3.90881689293631E-2</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1.2297585077525599E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="25">
-        <v>2.49847580036675E-2</v>
-      </c>
-      <c r="D28" s="25">
-        <v>2.5063172278267001E-2</v>
-      </c>
-      <c r="E28" s="25">
-        <v>8.9994177617781605E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="C31" s="19">
+        <v>0.12762428326142</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.12797900448970301</v>
+      </c>
+      <c r="E31" s="19">
+        <v>4.0919628589959301E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="25">
-        <v>0.10820118712217</v>
-      </c>
-      <c r="D29" s="25">
-        <v>0.108516578825798</v>
-      </c>
-      <c r="E29" s="25">
-        <v>3.5141193240362102E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="C32" s="19">
+        <v>2.3627920429072601E-3</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2.3694967294274499E-3</v>
+      </c>
+      <c r="E32" s="19">
+        <v>9.9993530686423994E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="25">
-        <v>3.8970809212668503E-2</v>
-      </c>
-      <c r="D30" s="25">
-        <v>3.90881689293631E-2</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="C33" s="19">
+        <v>3.78851218534959E-2</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3.7991526076771302E-2</v>
+      </c>
+      <c r="E33" s="19">
         <v>1.2297585077525599E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="25">
-        <v>0.12762428326142</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0.12797900448970301</v>
-      </c>
-      <c r="E31" s="25">
-        <v>4.0919628589959301E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="C34" s="19">
+        <v>5.0373624992882997E-2</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5.0504961574600403E-2</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1.5595752393273001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="25">
-        <v>2.3627920429072601E-3</v>
-      </c>
-      <c r="D32" s="25">
-        <v>2.3694967294274499E-3</v>
-      </c>
-      <c r="E32" s="25">
-        <v>9.9993530686423994E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C35" s="19">
+        <v>5.63381342468076E-2</v>
+      </c>
+      <c r="D35" s="19">
+        <v>5.6479801386927597E-2</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1.75956230070015E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="25">
-        <v>3.78851218534959E-2</v>
-      </c>
-      <c r="D33" s="25">
-        <v>3.7991526076771302E-2</v>
-      </c>
-      <c r="E33" s="25">
-        <v>1.2297585077525599E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="C36" s="19">
+        <v>3.6330349464591398E-2</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3.6420751548907698E-2</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1.1297649770661399E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="25">
-        <v>5.0373624992882997E-2</v>
-      </c>
-      <c r="D34" s="25">
-        <v>5.0504961574600403E-2</v>
-      </c>
-      <c r="E34" s="25">
-        <v>1.5595752393273001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="C37" s="19">
+        <v>3.0968318896020398E-2</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3.1044354874582201E-2</v>
+      </c>
+      <c r="E37" s="19">
+        <v>9.2977791569328705E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="25">
-        <v>5.63381342468076E-2</v>
-      </c>
-      <c r="D35" s="25">
-        <v>5.6479801386927597E-2</v>
-      </c>
-      <c r="E35" s="25">
-        <v>1.75956230070015E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="C38" s="19">
+        <v>3.16679822204479E-2</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3.1744259013798799E-2</v>
+      </c>
+      <c r="E38" s="19">
+        <v>9.2977791569328803E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="25">
-        <v>3.6330349464591398E-2</v>
-      </c>
-      <c r="D36" s="25">
-        <v>3.6420751548907698E-2</v>
-      </c>
-      <c r="E36" s="25">
-        <v>1.1297649770661399E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="C39" s="19">
+        <v>2.9264480649357001E-2</v>
+      </c>
+      <c r="D39" s="19">
+        <v>2.9334494658018399E-2</v>
+      </c>
+      <c r="E39" s="19">
+        <v>8.2978438500686501E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="25">
-        <v>3.0968318896020398E-2</v>
-      </c>
-      <c r="D37" s="25">
-        <v>3.1044354874582201E-2</v>
-      </c>
-      <c r="E37" s="25">
-        <v>9.2977791569328705E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="C40" s="19">
+        <v>2.4409230206756199E-2</v>
+      </c>
+      <c r="D40" s="19">
+        <v>2.4467148688098302E-2</v>
+      </c>
+      <c r="E40" s="19">
+        <v>7.2979085432044101E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="25">
-        <v>3.16679822204479E-2</v>
-      </c>
-      <c r="D38" s="25">
-        <v>3.1744259013798799E-2</v>
-      </c>
-      <c r="E38" s="25">
-        <v>9.2977791569328803E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="C41" s="19">
+        <v>5.6224193688915597E-2</v>
+      </c>
+      <c r="D41" s="19">
+        <v>5.6357106109794101E-2</v>
+      </c>
+      <c r="E41" s="19">
+        <v>1.65956877001373E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="25">
-        <v>2.9264480649357001E-2</v>
-      </c>
-      <c r="D39" s="25">
-        <v>2.9334494658018399E-2</v>
-      </c>
-      <c r="E39" s="25">
-        <v>8.2978438500686501E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="C42" s="19">
+        <v>4.8862590092295002E-2</v>
+      </c>
+      <c r="D42" s="19">
+        <v>4.8977557464380699E-2</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1.4363728287801101E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="25">
-        <v>2.4409230206756199E-2</v>
-      </c>
-      <c r="D40" s="25">
-        <v>2.4467148688098302E-2</v>
-      </c>
-      <c r="E40" s="25">
-        <v>7.2979085432044101E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="C43" s="19">
+        <v>4.8876546589562198E-2</v>
+      </c>
+      <c r="D43" s="19">
+        <v>4.8991385519128801E-2</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1.21046367455395E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="25">
-        <v>5.6224193688915597E-2</v>
-      </c>
-      <c r="D41" s="25">
-        <v>5.6357106109794101E-2</v>
-      </c>
-      <c r="E41" s="25">
-        <v>1.65956877001373E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="C44" s="19">
+        <v>2.0940425006008699E-2</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2.0989623342092801E-2</v>
+      </c>
+      <c r="E44" s="19">
+        <v>4.58555171074689E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="25">
-        <v>4.8862590092295002E-2</v>
-      </c>
-      <c r="D42" s="25">
-        <v>4.8977557464380699E-2</v>
-      </c>
-      <c r="E42" s="25">
-        <v>1.4363728287801101E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="25">
-        <v>4.8876546589562198E-2</v>
-      </c>
-      <c r="D43" s="25">
-        <v>4.8991385519128801E-2</v>
-      </c>
-      <c r="E43" s="25">
-        <v>1.21046367455395E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="25">
-        <v>2.0940425006008699E-2</v>
-      </c>
-      <c r="D44" s="25">
-        <v>2.0989623342092801E-2</v>
-      </c>
-      <c r="E44" s="25">
-        <v>4.58555171074689E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="25">
+      <c r="C45" s="19">
         <v>6.2045185206676297E-3</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="19">
         <v>3.41613626442769E-3</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="19">
         <v>0.25158793373774502</v>
       </c>
     </row>
@@ -8060,22 +7809,22 @@
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>4</v>
       </c>
@@ -8087,7 +7836,7 @@
         <v>0.162064192</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>6</v>
       </c>
@@ -8099,44 +7848,44 @@
         <v>0.32817998879999993</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <f>1*2</f>
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>4</v>
       </c>
@@ -8148,7 +7897,7 @@
         <v>0.162064192</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>3</v>
       </c>
@@ -8160,29 +7909,29 @@
         <v>0.63812775599999993</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
@@ -8193,19 +7942,19 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <f>1*2</f>
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8223,83 +7972,83 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <f>3.14*25.4^2*60000/10^9</f>
         <v>0.121548144</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <f>3.15*(25.4*1.5)^2*3000/10^9</f>
         <v>1.3717714499999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
       </c>
       <c r="E14">
         <f>3.15*(25.4*2)^2*20000/10^9</f>
         <v>0.16258032</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8309,18 +8058,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8535,14 +8284,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798D73A2-7EAA-4103-B191-161E65B38C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0111CE8-7B85-4427-87FC-DF1AB70FCCBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8555,6 +8296,14 @@
     <ds:schemaRef ds:uri="24acf4f6-2027-4227-902f-54e7acde40e4"/>
     <ds:schemaRef ds:uri="6288cde2-e4af-4292-b2f5-6ae8cb4b0036"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798D73A2-7EAA-4103-B191-161E65B38C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
